--- a/Cycle_One/HaerynLizDeepthi_Medical Device Development Worksheet 2018.xlsx
+++ b/Cycle_One/HaerynLizDeepthi_Medical Device Development Worksheet 2018.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepthinacharaju/Documents/Duke/Class/Fall 2018/BME590L/MediCall/Cycle_One/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8527EA9-C3A1-784F-B033-91ABA68D0693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Design Context Review" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Objectives" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Market Analysis" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Cust. Needs and Prob St." sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="HOQ, Specs" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Pugh Matrices" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="LBM" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="IP" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="FMEA" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Risk Register" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="Clin Reg Strategy" sheetId="11" r:id="rId13"/>
+    <sheet name="Design Context Review" sheetId="1" r:id="rId1"/>
+    <sheet name="Objectives" sheetId="2" r:id="rId2"/>
+    <sheet name="Market Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Cust. Needs and Prob St." sheetId="4" r:id="rId4"/>
+    <sheet name="HOQ, Specs" sheetId="5" r:id="rId5"/>
+    <sheet name="Pugh Matrices" sheetId="6" r:id="rId6"/>
+    <sheet name="LBM" sheetId="7" r:id="rId7"/>
+    <sheet name="IP" sheetId="8" r:id="rId8"/>
+    <sheet name="FMEA" sheetId="9" r:id="rId9"/>
+    <sheet name="Risk Register" sheetId="10" r:id="rId10"/>
+    <sheet name="Clin Reg Strategy" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="332">
   <si>
     <t>Objectives for Cycle 2</t>
   </si>
@@ -557,9 +573,6 @@
     <t>Spec #8</t>
   </si>
   <si>
-    <t>Spec #9</t>
-  </si>
-  <si>
     <t>CUSTOMER REQUIREMENTS/NEEDS</t>
   </si>
   <si>
@@ -572,9 +585,6 @@
     <t>Water resistance</t>
   </si>
   <si>
-    <t>Weight of device</t>
-  </si>
-  <si>
     <t>Cost of device</t>
   </si>
   <si>
@@ -623,9 +633,6 @@
     <t>IPX5</t>
   </si>
   <si>
-    <t>110g</t>
-  </si>
-  <si>
     <t xml:space="preserve">$150(from comparative chart on Market Analysis tab) </t>
   </si>
   <si>
@@ -644,9 +651,6 @@
     <t>IPX4</t>
   </si>
   <si>
-    <t>100g</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ideal Value </t>
   </si>
   <si>
@@ -663,9 +667,6 @@
   </si>
   <si>
     <t>6 months</t>
-  </si>
-  <si>
-    <t>50g</t>
   </si>
   <si>
     <t>Pugh Matrix</t>
@@ -1039,129 +1040,160 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1169,7 +1201,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1227,7 +1259,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1241,25 +1279,31 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1268,431 +1312,381 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="135">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="17" numFmtId="165" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1703,11 +1697,17 @@
     <xdr:ext cx="3990975" cy="5095875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="YOCK_Fig-5-1_1.jpg" id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg" descr="YOCK_Fig-5-1_1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1724,8 +1724,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1734,9 +1734,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4029075" cy="685800"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1753,12 +1759,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1792,11 +1798,17 @@
     <xdr:ext cx="6858000" cy="2590800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="2" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1820,11 +1832,17 @@
     <xdr:ext cx="6858000" cy="2228850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="4" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1841,33 +1859,326 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1011"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.71"/>
-    <col customWidth="1" min="2" max="2" width="74.14"/>
-    <col customWidth="1" min="3" max="3" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="29.0"/>
-    <col customWidth="1" min="5" max="6" width="7.71"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
+    <row r="1" spans="1:4" ht="21" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="B2" s="9"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1881,9 +2192,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>19</v>
@@ -1895,9 +2206,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>27</v>
@@ -1909,9 +2220,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="17">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>28</v>
@@ -1923,9 +2234,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>30</v>
@@ -1937,9 +2248,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>33</v>
@@ -1948,9 +2259,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -1959,9 +2270,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>36</v>
@@ -1970,10 +2281,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1981,9 +2292,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>40</v>
@@ -1992,9 +2303,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>41</v>
@@ -2006,9 +2317,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>42</v>
@@ -2020,9 +2331,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>43</v>
@@ -2034,10 +2345,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>9</v>
       </c>
@@ -2045,9 +2356,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>46</v>
@@ -2056,9 +2367,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" s="29">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>51</v>
@@ -2067,9 +2378,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>52</v>
@@ -2078,9 +2389,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>53</v>
@@ -2089,9 +2400,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23" s="23">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>54</v>
@@ -2103,13 +2414,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="B24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
@@ -2117,9 +2428,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4">
       <c r="A27" s="17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>56</v>
@@ -2128,9 +2439,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4">
       <c r="A28" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>57</v>
@@ -2139,9 +2450,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>58</v>
@@ -2150,9 +2461,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>59</v>
@@ -2164,9 +2475,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="23">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>60</v>
@@ -2178,9 +2489,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>61</v>
@@ -2189,10 +2500,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>9</v>
       </c>
@@ -2200,9 +2511,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>64</v>
@@ -2211,9 +2522,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="17">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>66</v>
@@ -2222,9 +2533,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>68</v>
@@ -2233,17 +2544,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3208,152 +3519,148 @@
     <row r="1010" ht="15.75" customHeight="1"/>
     <row r="1011" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="31.29"/>
-    <col customWidth="1" min="3" max="3" width="30.14"/>
-    <col customWidth="1" min="4" max="4" width="20.71"/>
-    <col customWidth="1" min="5" max="5" width="20.43"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="130" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B4" s="21" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1"/>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="B3" t="s">
+      <c r="C4" s="99">
+        <v>4</v>
+      </c>
+      <c r="D4" s="99">
+        <v>5</v>
+      </c>
+      <c r="E4" s="97">
+        <f t="shared" ref="E4:E11" si="0">C4*D4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B5" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="99">
+        <v>5</v>
+      </c>
+      <c r="D5" s="99">
+        <v>1</v>
+      </c>
+      <c r="E5" s="97">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B6" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" s="99">
+        <v>3</v>
+      </c>
+      <c r="D6" s="99">
+        <v>5</v>
+      </c>
+      <c r="E6" s="97">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B7" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="B4" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="99">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="99">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="97">
-        <f t="shared" ref="E4:E11" si="1">C4*D4</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="B5" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="99">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="97">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="99">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="99">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="97">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="21" t="s">
-        <v>323</v>
-      </c>
       <c r="C7" s="99">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="99">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="B8" s="126"/>
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
       <c r="E8" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="B9" s="126"/>
       <c r="C9" s="97"/>
       <c r="D9" s="97"/>
       <c r="E9" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="B10" s="126"/>
       <c r="C10" s="97"/>
       <c r="D10" s="97"/>
       <c r="E10" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="B11" s="126"/>
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1"/>
-    <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1"/>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -4339,728 +4646,724 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="42.71"/>
-    <col customWidth="1" min="3" max="3" width="73.86"/>
-    <col customWidth="1" min="4" max="6" width="10.71"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" customWidth="1"/>
+    <col min="4" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1">
       <c r="A1" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="61"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B4" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B5" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="61"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="B2" s="61"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="C5" s="118" t="s">
         <v>325</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B6" s="61" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="B4" s="61" t="s">
+      <c r="C6" s="118"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B7" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C7" s="118" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="B5" s="61" t="s">
+    <row r="8" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B8" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C8" s="118" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="61" t="s">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1">
+      <c r="B9" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="118"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="118" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="B8" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="B9" s="61" t="s">
-        <v>336</v>
-      </c>
       <c r="C9" s="123"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1">
       <c r="B10" s="61"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1">
       <c r="B11" s="61"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:3" ht="13.5" customHeight="1">
       <c r="B12" s="61"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1">
       <c r="B13" s="61"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1">
       <c r="B14" s="61"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1">
       <c r="B15" s="61"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:3" ht="13.5" customHeight="1">
       <c r="B16" s="61"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="2:2" ht="13.5" customHeight="1">
       <c r="B17" s="61"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="2:2" ht="13.5" customHeight="1">
       <c r="B18" s="61"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="2:2" ht="13.5" customHeight="1">
       <c r="B19" s="61"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="2:2" ht="13.5" customHeight="1">
       <c r="B20" s="61"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="2:2" ht="13.5" customHeight="1">
       <c r="B21" s="61"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="2:2" ht="13.5" customHeight="1">
       <c r="B22" s="61"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="2:2" ht="13.5" customHeight="1">
       <c r="B23" s="61"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="2:2" ht="13.5" customHeight="1">
       <c r="B24" s="61"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="2:2" ht="13.5" customHeight="1">
       <c r="B25" s="61"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="2:2" ht="13.5" customHeight="1">
       <c r="B26" s="61"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="2:2" ht="13.5" customHeight="1">
       <c r="B27" s="61"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="2:2" ht="13.5" customHeight="1">
       <c r="B28" s="61"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="2:2" ht="13.5" customHeight="1">
       <c r="B29" s="61"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="2:2" ht="13.5" customHeight="1">
       <c r="B30" s="61"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="2:2" ht="13.5" customHeight="1">
       <c r="B31" s="61"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="2:2" ht="13.5" customHeight="1">
       <c r="B32" s="61"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="2:2" ht="13.5" customHeight="1">
       <c r="B33" s="61"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="2:2" ht="13.5" customHeight="1">
       <c r="B34" s="61"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="2:2" ht="13.5" customHeight="1">
       <c r="B35" s="61"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="2:2" ht="13.5" customHeight="1">
       <c r="B36" s="61"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="2:2" ht="13.5" customHeight="1">
       <c r="B37" s="61"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="2:2" ht="13.5" customHeight="1">
       <c r="B38" s="61"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="2:2" ht="13.5" customHeight="1">
       <c r="B39" s="61"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="2:2" ht="13.5" customHeight="1">
       <c r="B40" s="61"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" spans="2:2" ht="13.5" customHeight="1">
       <c r="B41" s="61"/>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="2:2" ht="13.5" customHeight="1">
       <c r="B42" s="61"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" spans="2:2" ht="13.5" customHeight="1">
       <c r="B43" s="61"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="2:2" ht="13.5" customHeight="1">
       <c r="B44" s="61"/>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
+    <row r="45" spans="2:2" ht="13.5" customHeight="1">
       <c r="B45" s="61"/>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
+    <row r="46" spans="2:2" ht="13.5" customHeight="1">
       <c r="B46" s="61"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" spans="2:2" ht="13.5" customHeight="1">
       <c r="B47" s="61"/>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
+    <row r="48" spans="2:2" ht="13.5" customHeight="1">
       <c r="B48" s="61"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" spans="2:2" ht="13.5" customHeight="1">
       <c r="B49" s="61"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50" spans="2:2" ht="13.5" customHeight="1">
       <c r="B50" s="61"/>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
+    <row r="51" spans="2:2" ht="13.5" customHeight="1">
       <c r="B51" s="61"/>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
+    <row r="52" spans="2:2" ht="13.5" customHeight="1">
       <c r="B52" s="61"/>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
+    <row r="53" spans="2:2" ht="13.5" customHeight="1">
       <c r="B53" s="61"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="2:2" ht="13.5" customHeight="1">
       <c r="B54" s="61"/>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="2:2" ht="13.5" customHeight="1">
       <c r="B55" s="61"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="2:2" ht="13.5" customHeight="1">
       <c r="B56" s="61"/>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="2:2" ht="13.5" customHeight="1">
       <c r="B57" s="61"/>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="2:2" ht="13.5" customHeight="1">
       <c r="B58" s="61"/>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="2:2" ht="13.5" customHeight="1">
       <c r="B59" s="61"/>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="2:2" ht="13.5" customHeight="1">
       <c r="B60" s="61"/>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="2:2" ht="13.5" customHeight="1">
       <c r="B61" s="61"/>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="2:2" ht="13.5" customHeight="1">
       <c r="B62" s="61"/>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="2:2" ht="13.5" customHeight="1">
       <c r="B63" s="61"/>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="2:2" ht="13.5" customHeight="1">
       <c r="B64" s="61"/>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="2:2" ht="13.5" customHeight="1">
       <c r="B65" s="61"/>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="2:2" ht="13.5" customHeight="1">
       <c r="B66" s="61"/>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="2:2" ht="13.5" customHeight="1">
       <c r="B67" s="61"/>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="2:2" ht="13.5" customHeight="1">
       <c r="B68" s="61"/>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="2:2" ht="13.5" customHeight="1">
       <c r="B69" s="61"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="2:2" ht="13.5" customHeight="1">
       <c r="B70" s="61"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="2:2" ht="13.5" customHeight="1">
       <c r="B71" s="61"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="2:2" ht="13.5" customHeight="1">
       <c r="B72" s="61"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="2:2" ht="13.5" customHeight="1">
       <c r="B73" s="61"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="2:2" ht="13.5" customHeight="1">
       <c r="B74" s="61"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="2:2" ht="13.5" customHeight="1">
       <c r="B75" s="61"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="2:2" ht="13.5" customHeight="1">
       <c r="B76" s="61"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="2:2" ht="13.5" customHeight="1">
       <c r="B77" s="61"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="2:2" ht="13.5" customHeight="1">
       <c r="B78" s="61"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="2:2" ht="13.5" customHeight="1">
       <c r="B79" s="61"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="2:2" ht="13.5" customHeight="1">
       <c r="B80" s="61"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="2:2" ht="13.5" customHeight="1">
       <c r="B81" s="61"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="2:2" ht="13.5" customHeight="1">
       <c r="B82" s="61"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="2:2" ht="13.5" customHeight="1">
       <c r="B83" s="61"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="2:2" ht="13.5" customHeight="1">
       <c r="B84" s="61"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="2:2" ht="13.5" customHeight="1">
       <c r="B85" s="61"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="2:2" ht="13.5" customHeight="1">
       <c r="B86" s="61"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="2:2" ht="13.5" customHeight="1">
       <c r="B87" s="61"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="2:2" ht="13.5" customHeight="1">
       <c r="B88" s="61"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="2:2" ht="13.5" customHeight="1">
       <c r="B89" s="61"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="2:2" ht="13.5" customHeight="1">
       <c r="B90" s="61"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="2:2" ht="13.5" customHeight="1">
       <c r="B91" s="61"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="2:2" ht="13.5" customHeight="1">
       <c r="B92" s="61"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="2:2" ht="13.5" customHeight="1">
       <c r="B93" s="61"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="2:2" ht="13.5" customHeight="1">
       <c r="B94" s="61"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="2:2" ht="13.5" customHeight="1">
       <c r="B95" s="61"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="2:2" ht="13.5" customHeight="1">
       <c r="B96" s="61"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="2:2" ht="13.5" customHeight="1">
       <c r="B97" s="61"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="2:2" ht="13.5" customHeight="1">
       <c r="B98" s="61"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="2:2" ht="13.5" customHeight="1">
       <c r="B99" s="61"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="2:2" ht="13.5" customHeight="1">
       <c r="B100" s="61"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="2:2" ht="13.5" customHeight="1">
       <c r="B101" s="61"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="2:2" ht="13.5" customHeight="1">
       <c r="B102" s="61"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="2:2" ht="13.5" customHeight="1">
       <c r="B103" s="61"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="2:2" ht="13.5" customHeight="1">
       <c r="B104" s="61"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="2:2" ht="13.5" customHeight="1">
       <c r="B105" s="61"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="2:2" ht="13.5" customHeight="1">
       <c r="B106" s="61"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="2:2" ht="13.5" customHeight="1">
       <c r="B107" s="61"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="2:2" ht="13.5" customHeight="1">
       <c r="B108" s="61"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="2:2" ht="13.5" customHeight="1">
       <c r="B109" s="61"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="2:2" ht="13.5" customHeight="1">
       <c r="B110" s="61"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="2:2" ht="13.5" customHeight="1">
       <c r="B111" s="61"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="2:2" ht="13.5" customHeight="1">
       <c r="B112" s="61"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="2:2" ht="13.5" customHeight="1">
       <c r="B113" s="61"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="2:2" ht="13.5" customHeight="1">
       <c r="B114" s="61"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="2:2" ht="13.5" customHeight="1">
       <c r="B115" s="61"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="2:2" ht="13.5" customHeight="1">
       <c r="B116" s="61"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="2:2" ht="13.5" customHeight="1">
       <c r="B117" s="61"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="2:2" ht="13.5" customHeight="1">
       <c r="B118" s="61"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="2:2" ht="13.5" customHeight="1">
       <c r="B119" s="61"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="2:2" ht="13.5" customHeight="1">
       <c r="B120" s="61"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="2:2" ht="13.5" customHeight="1">
       <c r="B121" s="61"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="2:2" ht="13.5" customHeight="1">
       <c r="B122" s="61"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="2:2" ht="13.5" customHeight="1">
       <c r="B123" s="61"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="2:2" ht="13.5" customHeight="1">
       <c r="B124" s="61"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="2:2" ht="13.5" customHeight="1">
       <c r="B125" s="61"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="2:2" ht="13.5" customHeight="1">
       <c r="B126" s="61"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="2:2" ht="13.5" customHeight="1">
       <c r="B127" s="61"/>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="2:2" ht="13.5" customHeight="1">
       <c r="B128" s="61"/>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="2:2" ht="13.5" customHeight="1">
       <c r="B129" s="61"/>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="2:2" ht="13.5" customHeight="1">
       <c r="B130" s="61"/>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="2:2" ht="13.5" customHeight="1">
       <c r="B131" s="61"/>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="2:2" ht="13.5" customHeight="1">
       <c r="B132" s="61"/>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="2:2" ht="13.5" customHeight="1">
       <c r="B133" s="61"/>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="2:2" ht="13.5" customHeight="1">
       <c r="B134" s="61"/>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="2:2" ht="13.5" customHeight="1">
       <c r="B135" s="61"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="2:2" ht="13.5" customHeight="1">
       <c r="B136" s="61"/>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="2:2" ht="13.5" customHeight="1">
       <c r="B137" s="61"/>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="2:2" ht="13.5" customHeight="1">
       <c r="B138" s="61"/>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="2:2" ht="13.5" customHeight="1">
       <c r="B139" s="61"/>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="2:2" ht="13.5" customHeight="1">
       <c r="B140" s="61"/>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="2:2" ht="13.5" customHeight="1">
       <c r="B141" s="61"/>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="2:2" ht="13.5" customHeight="1">
       <c r="B142" s="61"/>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="2:2" ht="13.5" customHeight="1">
       <c r="B143" s="61"/>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="2:2" ht="13.5" customHeight="1">
       <c r="B144" s="61"/>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="2:2" ht="13.5" customHeight="1">
       <c r="B145" s="61"/>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="2:2" ht="13.5" customHeight="1">
       <c r="B146" s="61"/>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="2:2" ht="13.5" customHeight="1">
       <c r="B147" s="61"/>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="2:2" ht="13.5" customHeight="1">
       <c r="B148" s="61"/>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="2:2" ht="13.5" customHeight="1">
       <c r="B149" s="61"/>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="2:2" ht="13.5" customHeight="1">
       <c r="B150" s="61"/>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="2:2" ht="13.5" customHeight="1">
       <c r="B151" s="61"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="2:2" ht="13.5" customHeight="1">
       <c r="B152" s="61"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="2:2" ht="13.5" customHeight="1">
       <c r="B153" s="61"/>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="2:2" ht="13.5" customHeight="1">
       <c r="B154" s="61"/>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="2:2" ht="13.5" customHeight="1">
       <c r="B155" s="61"/>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="2:2" ht="13.5" customHeight="1">
       <c r="B156" s="61"/>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="2:2" ht="13.5" customHeight="1">
       <c r="B157" s="61"/>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="2:2" ht="13.5" customHeight="1">
       <c r="B158" s="61"/>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="2:2" ht="13.5" customHeight="1">
       <c r="B159" s="61"/>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="2:2" ht="13.5" customHeight="1">
       <c r="B160" s="61"/>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="2:2" ht="13.5" customHeight="1">
       <c r="B161" s="61"/>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="2:2" ht="13.5" customHeight="1">
       <c r="B162" s="61"/>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="2:2" ht="13.5" customHeight="1">
       <c r="B163" s="61"/>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="2:2" ht="13.5" customHeight="1">
       <c r="B164" s="61"/>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="2:2" ht="13.5" customHeight="1">
       <c r="B165" s="61"/>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="2:2" ht="13.5" customHeight="1">
       <c r="B166" s="61"/>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="2:2" ht="13.5" customHeight="1">
       <c r="B167" s="61"/>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="2:2" ht="13.5" customHeight="1">
       <c r="B168" s="61"/>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="2:2" ht="13.5" customHeight="1">
       <c r="B169" s="61"/>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="2:2" ht="13.5" customHeight="1">
       <c r="B170" s="61"/>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="2:2" ht="13.5" customHeight="1">
       <c r="B171" s="61"/>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="2:2" ht="13.5" customHeight="1">
       <c r="B172" s="61"/>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="2:2" ht="13.5" customHeight="1">
       <c r="B173" s="61"/>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="2:2" ht="13.5" customHeight="1">
       <c r="B174" s="61"/>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="2:2" ht="13.5" customHeight="1">
       <c r="B175" s="61"/>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="2:2" ht="13.5" customHeight="1">
       <c r="B176" s="61"/>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="2:2" ht="13.5" customHeight="1">
       <c r="B177" s="61"/>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="2:2" ht="13.5" customHeight="1">
       <c r="B178" s="61"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="2:2" ht="13.5" customHeight="1">
       <c r="B179" s="61"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="2:2" ht="13.5" customHeight="1">
       <c r="B180" s="61"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="2:2" ht="13.5" customHeight="1">
       <c r="B181" s="61"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="2:2" ht="13.5" customHeight="1">
       <c r="B182" s="61"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="2:2" ht="13.5" customHeight="1">
       <c r="B183" s="61"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="2:2" ht="13.5" customHeight="1">
       <c r="B184" s="61"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="2:2" ht="13.5" customHeight="1">
       <c r="B185" s="61"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="2:2" ht="13.5" customHeight="1">
       <c r="B186" s="61"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="2:2" ht="13.5" customHeight="1">
       <c r="B187" s="61"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="2:2" ht="13.5" customHeight="1">
       <c r="B188" s="61"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="2:2" ht="13.5" customHeight="1">
       <c r="B189" s="61"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="2:2" ht="13.5" customHeight="1">
       <c r="B190" s="61"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="2:2" ht="13.5" customHeight="1">
       <c r="B191" s="61"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="2:2" ht="13.5" customHeight="1">
       <c r="B192" s="61"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="2:2" ht="13.5" customHeight="1">
       <c r="B193" s="61"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="2:2" ht="13.5" customHeight="1">
       <c r="B194" s="61"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="2:2" ht="13.5" customHeight="1">
       <c r="B195" s="61"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="2:2" ht="13.5" customHeight="1">
       <c r="B196" s="61"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="2:2" ht="13.5" customHeight="1">
       <c r="B197" s="61"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="2:2" ht="13.5" customHeight="1">
       <c r="B198" s="61"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="2:2" ht="13.5" customHeight="1">
       <c r="B199" s="61"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="2:2" ht="13.5" customHeight="1">
       <c r="B200" s="61"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="2:2" ht="13.5" customHeight="1">
       <c r="B201" s="61"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="2:2" ht="13.5" customHeight="1">
       <c r="B202" s="61"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="2:2" ht="13.5" customHeight="1">
       <c r="B203" s="61"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="2:2" ht="13.5" customHeight="1">
       <c r="B204" s="61"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="2:2" ht="13.5" customHeight="1">
       <c r="B205" s="61"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="2:2" ht="13.5" customHeight="1">
       <c r="B206" s="61"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="2:2" ht="13.5" customHeight="1">
       <c r="B207" s="61"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="2:2" ht="13.5" customHeight="1">
       <c r="B208" s="61"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="2:2" ht="13.5" customHeight="1">
       <c r="B209" s="61"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="2:2" ht="13.5" customHeight="1">
       <c r="B210" s="61"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="2:2" ht="13.5" customHeight="1">
       <c r="B211" s="61"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="2:2" ht="13.5" customHeight="1">
       <c r="B212" s="61"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="2:2" ht="13.5" customHeight="1">
       <c r="B213" s="61"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="2:2" ht="13.5" customHeight="1">
       <c r="B214" s="61"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="2:2" ht="13.5" customHeight="1">
       <c r="B215" s="61"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="2:2" ht="13.5" customHeight="1">
       <c r="B216" s="61"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="2:2" ht="13.5" customHeight="1">
       <c r="B217" s="61"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="2:2" ht="13.5" customHeight="1">
       <c r="B218" s="61"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="2:2" ht="13.5" customHeight="1">
       <c r="B219" s="61"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="2:2" ht="13.5" customHeight="1">
       <c r="B220" s="61"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="222" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="223" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="224" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -5838,29 +6141,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.71"/>
-    <col customWidth="1" min="2" max="2" width="96.43"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="96.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5868,7 +6172,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5882,7 +6186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
@@ -5890,7 +6194,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
@@ -5898,11 +6202,11 @@
         <v>29</v>
       </c>
       <c r="C4" s="24">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D4" s="24"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="22" t="s">
         <v>31</v>
       </c>
@@ -5910,11 +6214,11 @@
         <v>32</v>
       </c>
       <c r="C5" s="24">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D5" s="26"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="22" t="s">
         <v>37</v>
       </c>
@@ -5922,11 +6226,11 @@
         <v>38</v>
       </c>
       <c r="C6" s="30">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="22" t="s">
         <v>37</v>
       </c>
@@ -5934,11 +6238,11 @@
         <v>63</v>
       </c>
       <c r="C7" s="30">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D7" s="31"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="22" t="s">
         <v>65</v>
       </c>
@@ -5946,11 +6250,11 @@
         <v>67</v>
       </c>
       <c r="C8" s="30">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D8" s="31"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="33" t="s">
         <v>69</v>
       </c>
@@ -5958,11 +6262,11 @@
         <v>71</v>
       </c>
       <c r="C9" s="30">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D9" s="31"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" s="34" t="s">
         <v>72</v>
       </c>
@@ -5971,7 +6275,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
@@ -5979,11 +6283,11 @@
         <v>74</v>
       </c>
       <c r="C11" s="24">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D11" s="26"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="22" t="s">
         <v>79</v>
       </c>
@@ -5991,11 +6295,11 @@
         <v>80</v>
       </c>
       <c r="C12" s="24">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D12" s="26"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
         <v>81</v>
       </c>
@@ -6003,11 +6307,11 @@
         <v>82</v>
       </c>
       <c r="C13" s="24">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D13" s="26"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
         <v>85</v>
       </c>
@@ -6015,11 +6319,11 @@
         <v>87</v>
       </c>
       <c r="C14" s="24">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D14" s="26"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="37" t="s">
         <v>90</v>
@@ -6031,34 +6335,31 @@
       <c r="D15" s="2"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U1007"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="18.86"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="25.29"/>
-    <col customWidth="1" min="5" max="5" width="17.71"/>
-    <col customWidth="1" min="6" max="6" width="18.86"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="11.86"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
+    <row r="1" spans="1:21" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -6070,7 +6371,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6080,7 +6381,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:21" ht="30" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
         <v>8</v>
@@ -6104,9 +6405,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="135">
       <c r="A4" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>18</v>
@@ -6132,9 +6433,9 @@
         <v>13413000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="75">
       <c r="A5" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>44</v>
@@ -6160,9 +6461,9 @@
         <v>42228000</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" ht="90">
       <c r="A6" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>73</v>
@@ -6188,15 +6489,15 @@
         <v>262800</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" ht="60">
       <c r="A7" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="20">
-        <v>4900000.0</v>
+        <v>4900000</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>84</v>
@@ -6215,9 +6516,9 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" ht="90">
       <c r="A8" s="38">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>91</v>
@@ -6243,7 +6544,7 @@
         <v>5533500</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21">
       <c r="A9" s="6"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -6253,7 +6554,7 @@
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21">
       <c r="A10" s="6"/>
       <c r="B10" s="40" t="s">
         <v>94</v>
@@ -6278,7 +6579,7 @@
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21">
       <c r="A11" s="6"/>
       <c r="B11" s="43" t="s">
         <v>95</v>
@@ -6303,7 +6604,7 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21">
       <c r="A12" s="6"/>
       <c r="B12" s="43" t="s">
         <v>96</v>
@@ -6328,7 +6629,7 @@
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21">
       <c r="A13" s="6"/>
       <c r="B13" s="43" t="s">
         <v>97</v>
@@ -6353,7 +6654,7 @@
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21">
       <c r="A14" s="6"/>
       <c r="B14" s="43" t="s">
         <v>98</v>
@@ -6378,7 +6679,7 @@
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21">
       <c r="A15" s="6"/>
       <c r="B15" s="43" t="s">
         <v>99</v>
@@ -6403,7 +6704,7 @@
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21">
       <c r="A16" s="6"/>
       <c r="B16" s="43" t="s">
         <v>100</v>
@@ -6428,7 +6729,7 @@
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21">
       <c r="A17" s="6"/>
       <c r="B17" s="43" t="s">
         <v>101</v>
@@ -6453,7 +6754,7 @@
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21">
       <c r="A18" s="6"/>
       <c r="B18" s="43" t="s">
         <v>102</v>
@@ -6478,7 +6779,7 @@
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21">
       <c r="A19" s="6"/>
       <c r="B19" s="43" t="s">
         <v>103</v>
@@ -6503,7 +6804,7 @@
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21">
       <c r="A20" s="6"/>
       <c r="B20" s="43" t="s">
         <v>104</v>
@@ -6528,7 +6829,7 @@
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21">
       <c r="A21" s="6"/>
       <c r="B21" s="43" t="s">
         <v>105</v>
@@ -6553,7 +6854,7 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21">
       <c r="A22" s="6"/>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -6563,7 +6864,7 @@
       <c r="G22" s="47"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21">
       <c r="A23" s="6"/>
       <c r="B23" s="48" t="s">
         <v>106</v>
@@ -6575,7 +6876,7 @@
       <c r="G23" s="47"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21">
       <c r="A24" s="6"/>
       <c r="B24" s="40" t="s">
         <v>111</v>
@@ -6597,19 +6898,19 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21">
       <c r="A25" s="6"/>
       <c r="B25" s="43" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="50">
-        <v>3128.0</v>
+        <v>3128</v>
       </c>
       <c r="D25" s="43">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E25" s="50">
-        <v>130.33</v>
+        <v>130.33000000000001</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>118</v>
@@ -6619,16 +6920,16 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="50">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="D26" s="43">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E26" s="50">
         <v>170.67</v>
@@ -6641,13 +6942,13 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="B27" s="64" t="s">
         <v>125</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="64">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="69">
         <v>124.21</v>
@@ -6659,13 +6960,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1">
       <c r="B28" s="64" t="s">
         <v>161</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="64">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="69">
         <v>166.99</v>
@@ -6677,7 +6978,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1">
       <c r="B29" s="73" t="s">
         <v>170</v>
       </c>
@@ -6685,32 +6986,32 @@
       <c r="D29" s="45"/>
       <c r="E29" s="77">
         <f>AVERAGE(E25:E28)</f>
-        <v>148.05</v>
+        <v>148.05000000000001</v>
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1">
       <c r="B40" s="79"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -7672,47 +7973,43 @@
     <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G25"/>
-    <hyperlink r:id="rId2" ref="G26"/>
-    <hyperlink r:id="rId3" ref="G27"/>
-    <hyperlink r:id="rId4" ref="G28"/>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G26" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G27" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G28" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C994"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.29"/>
-    <col customWidth="1" min="2" max="2" width="79.29"/>
-    <col customWidth="1" min="3" max="3" width="9.14"/>
-    <col customWidth="1" min="4" max="6" width="7.71"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
+    <row r="1" spans="1:3" ht="21" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" ht="21.0" customHeight="1">
+    <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
         <v>108</v>
       </c>
@@ -7723,167 +8020,167 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="49" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="51"/>
       <c r="B5" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="54">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="51"/>
       <c r="B6" s="52" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="55">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="51"/>
       <c r="B7" s="52" t="s">
         <v>126</v>
       </c>
       <c r="C7" s="55">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="51"/>
       <c r="B8" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="55">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="51"/>
       <c r="B9" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="55">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="51"/>
       <c r="B10" s="57"/>
       <c r="C10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="59" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="54"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="51"/>
       <c r="B12" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="55">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="51"/>
       <c r="B13" s="52"/>
       <c r="C13" s="55"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="32">
       <c r="A14" s="51"/>
       <c r="B14" s="52" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="55">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="51"/>
       <c r="B15" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="55">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="51"/>
       <c r="B16" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="55">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17" ht="30.0" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="62" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="54"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="51"/>
       <c r="B18" s="52" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="54">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="51"/>
       <c r="B19" s="66" t="s">
         <v>136</v>
       </c>
       <c r="C19" s="55">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
       <c r="A20" s="51"/>
       <c r="B20" s="52" t="s">
         <v>138</v>
       </c>
       <c r="C20" s="55">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="51"/>
       <c r="B21" s="57"/>
       <c r="C21" s="54"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="51"/>
       <c r="B22" s="57"/>
       <c r="C22" s="54"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="51"/>
       <c r="B23" s="57"/>
       <c r="C23" s="54"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="24.0" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -7891,7 +8188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -7899,7 +8196,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -7907,9 +8204,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>150</v>
       </c>
@@ -7920,9 +8217,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>154</v>
@@ -7931,9 +8228,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>154</v>
@@ -7942,9 +8239,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>154</v>
@@ -7953,9 +8250,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="15">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>154</v>
@@ -7964,9 +8261,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>159</v>
@@ -7975,9 +8272,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>159</v>
@@ -7986,9 +8283,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>159</v>
@@ -7997,9 +8294,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>159</v>
@@ -8008,9 +8305,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>159</v>
@@ -8019,9 +8316,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>168</v>
@@ -8030,9 +8327,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>168</v>
@@ -8041,9 +8338,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>173</v>
@@ -8052,9 +8349,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>173</v>
@@ -8063,9 +8360,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>173</v>
@@ -8074,9 +8371,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -9024,29 +9321,29 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.43"/>
-    <col customWidth="1" min="2" max="2" width="28.71"/>
-    <col customWidth="1" min="3" max="9" width="15.14"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:23" ht="24.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>124</v>
       </c>
@@ -9057,13 +9354,17 @@
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="60"/>
       <c r="B2" s="61"/>
-      <c r="C2" s="63"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="63"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="63"/>
@@ -9073,7 +9374,7 @@
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="61"/>
       <c r="B4" s="61"/>
       <c r="C4" s="67" t="s">
@@ -9100,16 +9401,14 @@
       <c r="J4" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>37</v>
@@ -9118,33 +9417,31 @@
         <v>79</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="75" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A6" s="78">
+        <v>1</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>183</v>
-      </c>
-      <c r="K5" s="76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>185</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>26</v>
@@ -9157,17 +9454,15 @@
       <c r="G6" s="80"/>
       <c r="H6" s="75"/>
       <c r="I6" s="80"/>
-      <c r="J6" s="25" t="s">
-        <v>26</v>
-      </c>
+      <c r="J6" s="80"/>
       <c r="K6" s="80"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="78">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="75"/>
@@ -9181,12 +9476,12 @@
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="78">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="75" t="s">
@@ -9200,12 +9495,12 @@
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="75">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="75"/>
@@ -9221,12 +9516,12 @@
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="75">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="75"/>
@@ -9240,12 +9535,12 @@
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="75">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="75"/>
@@ -9259,12 +9554,12 @@
       <c r="J11" s="80"/>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="81">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="75"/>
@@ -9273,76 +9568,72 @@
       <c r="G12" s="72"/>
       <c r="H12" s="75"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="E13" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="F13" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="G13" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="H13" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="I13" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="J13" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="I13" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="61"/>
       <c r="B14" s="83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" s="85">
         <v>0.2</v>
       </c>
       <c r="E14" s="75">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="75">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="J14" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="K14" s="87">
-        <v>100.0</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="J14" s="87">
+        <v>100</v>
+      </c>
+      <c r="K14" s="87"/>
       <c r="L14" s="88"/>
       <c r="M14" s="88"/>
       <c r="N14" s="88"/>
@@ -9354,40 +9645,38 @@
       <c r="T14" s="88"/>
       <c r="U14" s="88"/>
       <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="W14" s="134"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="61"/>
       <c r="B15" s="83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D15" s="85">
         <v>0.05</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F15" s="75" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G15" s="86" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="K15" s="87">
-        <v>70.0</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="J15" s="87">
+        <v>70</v>
+      </c>
+      <c r="K15" s="87"/>
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
@@ -9399,8 +9688,9 @@
       <c r="T15" s="88"/>
       <c r="U15" s="88"/>
       <c r="V15" s="88"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="W15" s="133"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="C16" s="89"/>
@@ -9409,7 +9699,7 @@
       <c r="F16" s="89"/>
       <c r="H16" s="63"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="90" t="s">
         <v>94</v>
       </c>
@@ -9436,9 +9726,9 @@
       <c r="V17" s="42"/>
       <c r="W17" s="42"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="94" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
@@ -9463,9 +9753,9 @@
       <c r="V18" s="98"/>
       <c r="W18" s="98"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="94" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B19" s="100"/>
       <c r="C19" s="102"/>
@@ -9490,9 +9780,9 @@
       <c r="V19" s="98"/>
       <c r="W19" s="98"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="104" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B20" s="98"/>
       <c r="C20" s="105"/>
@@ -9517,9 +9807,9 @@
       <c r="V20" s="98"/>
       <c r="W20" s="98"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B21" s="98"/>
       <c r="C21" s="107"/>
@@ -9544,7 +9834,7 @@
       <c r="V21" s="98"/>
       <c r="W21" s="98"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -9552,16 +9842,16 @@
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -10536,347 +10826,348 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="W14:W15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:W3 C4:G4 I4:J4 K4:W4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D3:W3 C4:G4 I4 K4:W4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(K4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M1002"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="52.0"/>
-    <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="5" width="18.0"/>
-    <col customWidth="1" min="6" max="13" width="25.14"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="13" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1">
       <c r="A1" s="92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1"/>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1"/>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="B3" t="s">
+      <c r="G3" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B4" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="B4" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="C4" s="97">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="D4" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="99">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="99">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="99">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="99">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="97">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="101"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="B5" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="99">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="99">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="99">
+        <v>1</v>
+      </c>
+      <c r="F5" s="99">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="99">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="99">
+        <v>1</v>
+      </c>
+      <c r="I5" s="99">
+        <v>1</v>
+      </c>
+      <c r="J5" s="99">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="99">
+        <v>0</v>
+      </c>
+      <c r="L5" s="97">
+        <v>0</v>
+      </c>
+      <c r="M5" s="101"/>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="99">
+        <v>0</v>
+      </c>
+      <c r="D6" s="99">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="99">
+        <v>1</v>
+      </c>
+      <c r="F6" s="99">
+        <v>0</v>
+      </c>
+      <c r="G6" s="99">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="99">
+        <v>1</v>
+      </c>
+      <c r="I6" s="99">
+        <v>0</v>
+      </c>
+      <c r="J6" s="99">
+        <v>1</v>
+      </c>
+      <c r="K6" s="99">
+        <v>0</v>
+      </c>
+      <c r="L6" s="97">
+        <v>0</v>
+      </c>
+      <c r="M6" s="101"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="99">
+        <v>0</v>
+      </c>
+      <c r="D7" s="99">
+        <v>0</v>
+      </c>
+      <c r="E7" s="99">
+        <v>0</v>
+      </c>
+      <c r="F7" s="99">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="99">
+        <v>0</v>
+      </c>
+      <c r="H7" s="99">
+        <v>0</v>
+      </c>
+      <c r="I7" s="99">
+        <v>1</v>
+      </c>
+      <c r="J7" s="99">
+        <v>0</v>
+      </c>
+      <c r="K7" s="99">
+        <v>0</v>
+      </c>
+      <c r="L7" s="99">
+        <v>0</v>
+      </c>
+      <c r="M7" s="101"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B8" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="D5" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="E5" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="G5" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="H5" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="J5" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="K5" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="101"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="E6" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="H6" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="101"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="99">
-        <v>-1.0</v>
-      </c>
-      <c r="G7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="C8" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="99">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="99">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="99">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="99">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="99">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="99">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="97">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:13" ht="13.5" customHeight="1">
       <c r="B9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="99">
+        <v>0</v>
+      </c>
+      <c r="D9" s="99">
+        <v>0</v>
+      </c>
+      <c r="E9" s="99">
+        <v>1</v>
+      </c>
+      <c r="F9" s="99">
+        <v>0</v>
+      </c>
+      <c r="G9" s="99">
+        <v>0</v>
+      </c>
+      <c r="H9" s="99">
+        <v>0</v>
+      </c>
+      <c r="I9" s="99">
+        <v>0</v>
+      </c>
+      <c r="J9" s="99">
+        <v>1</v>
+      </c>
+      <c r="K9" s="99">
+        <v>0</v>
+      </c>
+      <c r="L9" s="99">
+        <v>0</v>
+      </c>
+      <c r="M9" s="101"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B10" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="99">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="101"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="B10" s="45" t="s">
-        <v>242</v>
-      </c>
       <c r="C10" s="108">
-        <f t="shared" ref="C10:L10" si="1">SUM(C4:C8)</f>
+        <f t="shared" ref="C10:L10" si="0">SUM(C4:C8)</f>
         <v>0</v>
       </c>
       <c r="D10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="E10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="H10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="49"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1"/>
-    <row r="12" ht="13.5" customHeight="1"/>
-    <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1"/>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -11864,36 +12155,32 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.43"/>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="18.71"/>
-    <col customWidth="1" min="4" max="4" width="14.14"/>
-    <col customWidth="1" min="5" max="5" width="15.0"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
-    <col customWidth="1" min="8" max="9" width="12.0"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
+    <row r="1" spans="1:9" ht="21" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -11904,7 +12191,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -11915,16 +12202,16 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="9"/>
       <c r="B3" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C3" s="103">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -11932,7 +12219,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -11943,103 +12230,103 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="9"/>
       <c r="B5" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="G5" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="H5" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="106" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="106" t="s">
-        <v>246</v>
-      </c>
       <c r="I5" s="106" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="101"/>
       <c r="B6" s="109" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D6" s="110">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="111">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F6" s="110">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="110">
         <v>0.5</v>
       </c>
       <c r="H6" s="111">
-        <f t="shared" ref="H6:H15" si="1">G6*$C$3*F6+E6*D6</f>
+        <f t="shared" ref="H6:H15" si="0">G6*$C$3*F6+E6*D6</f>
         <v>183</v>
       </c>
       <c r="I6" s="112"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="101"/>
       <c r="B7" s="109"/>
       <c r="C7" s="109" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D7" s="110">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="111">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
       <c r="H7" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I7" s="112"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="101"/>
       <c r="B8" s="109"/>
       <c r="C8" s="109" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D8" s="110">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="111">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="110"/>
       <c r="G8" s="110"/>
       <c r="H8" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I8" s="112"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="101"/>
       <c r="B9" s="109" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C9" s="109"/>
       <c r="D9" s="110"/>
@@ -12047,38 +12334,38 @@
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
       <c r="H9" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="112"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="101"/>
       <c r="B10" s="113" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C10" s="113" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D10" s="114">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="115">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="114">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="114">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="I10" s="112"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="A11" s="101"/>
       <c r="B11" s="109"/>
       <c r="C11" s="109"/>
@@ -12087,12 +12374,12 @@
       <c r="F11" s="110"/>
       <c r="G11" s="110"/>
       <c r="H11" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="112"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="A12" s="101"/>
       <c r="B12" s="109"/>
       <c r="C12" s="109"/>
@@ -12101,12 +12388,12 @@
       <c r="F12" s="110"/>
       <c r="G12" s="110"/>
       <c r="H12" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="112"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="A13" s="101"/>
       <c r="B13" s="109"/>
       <c r="C13" s="109"/>
@@ -12115,12 +12402,12 @@
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="112"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="A14" s="101"/>
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
@@ -12129,12 +12416,12 @@
       <c r="F14" s="110"/>
       <c r="G14" s="110"/>
       <c r="H14" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="112"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="A15" s="101"/>
       <c r="B15" s="109"/>
       <c r="C15" s="109"/>
@@ -12143,15 +12430,15 @@
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
       <c r="H15" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="112"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="101"/>
       <c r="B16" s="116" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="110"/>
@@ -12164,7 +12451,7 @@
       </c>
       <c r="I16" s="121"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -12175,7 +12462,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -12186,7 +12473,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12197,7 +12484,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -12208,18 +12495,18 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -13189,158 +13476,154 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="15.14"/>
-    <col customWidth="1" min="3" max="3" width="29.14"/>
-    <col customWidth="1" min="4" max="4" width="44.71"/>
-    <col customWidth="1" min="5" max="5" width="36.71"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="68" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1"/>
-    <row r="3" ht="13.5" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="B3" s="61" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="B4" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B5" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="E5" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="117" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B6" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="117" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="B5" s="21" t="s">
+      <c r="C6" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="D6" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="E6" s="118" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="118" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B7" s="118" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="118" t="s">
+      <c r="C7" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="D7" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="E7" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="E6" s="118" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B8" s="118" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="118" t="s">
+      <c r="C8" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="D8" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="E8" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="118" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="B8" s="118" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B9" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C9" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D9" s="118" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E9" s="120" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="B9" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="120" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="B10" s="123"/>
       <c r="C10" s="123"/>
       <c r="D10" s="123"/>
       <c r="E10" s="123"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1"/>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -14325,38 +14608,35 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.43"/>
-    <col customWidth="1" min="2" max="2" width="20.14"/>
-    <col customWidth="1" min="3" max="3" width="22.14"/>
-    <col customWidth="1" min="4" max="4" width="21.14"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="10.86"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
-    <col customWidth="1" min="8" max="8" width="12.86"/>
-    <col customWidth="1" min="9" max="9" width="28.14"/>
-    <col customWidth="1" min="10" max="10" width="7.71"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -14366,7 +14646,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -14375,152 +14655,152 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" ht="48.75" customHeight="1">
+    <row r="3" spans="1:10" ht="48.75" customHeight="1">
       <c r="B3" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="124" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="F3" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="124" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="I3" s="124" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" customHeight="1">
+      <c r="A4" s="106">
+        <v>1</v>
+      </c>
+      <c r="B4" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="C4" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="D4" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="E4" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="F4" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" ht="45.0" customHeight="1">
-      <c r="A4" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="110" t="s">
+      <c r="G4" s="110">
+        <v>3</v>
+      </c>
+      <c r="H4" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="I4" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="110" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="48">
+      <c r="A5" s="106">
+        <v>2</v>
+      </c>
+      <c r="B5" s="114" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="C5" s="114" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="D5" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="110">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="110" t="s">
+      <c r="E5" s="114" t="s">
         <v>298</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="F5" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="114">
+        <v>6</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="114" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="114" t="s">
+    <row r="6" spans="1:10" ht="80">
+      <c r="A6" s="106">
+        <v>3</v>
+      </c>
+      <c r="B6" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C6" s="114" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D6" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E6" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="114" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="114">
-        <v>6.0</v>
-      </c>
-      <c r="H5" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="114" t="s">
+      <c r="F6" s="114" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="114" t="s">
+      <c r="G6" s="114">
+        <v>9</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="114" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="114" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="48">
+      <c r="A7" s="106">
+        <v>4</v>
+      </c>
+      <c r="B7" s="114" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="C7" s="114" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="D7" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="E7" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="114">
+        <v>5</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="G6" s="114">
-        <v>9.0</v>
-      </c>
-      <c r="H6" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" s="114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" s="114" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="114">
-        <v>5.0</v>
-      </c>
-      <c r="H7" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="I7" s="114" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="58">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="126"/>
       <c r="C8" s="126"/>
@@ -14531,9 +14811,9 @@
       <c r="H8" s="126"/>
       <c r="I8" s="126"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="A9" s="58">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="126"/>
       <c r="C9" s="126"/>
@@ -14544,9 +14824,9 @@
       <c r="H9" s="126"/>
       <c r="I9" s="126"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="A10" s="58">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="126"/>
       <c r="C10" s="126"/>
@@ -14557,9 +14837,9 @@
       <c r="H10" s="126"/>
       <c r="I10" s="126"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="A11" s="58">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
@@ -14570,9 +14850,9 @@
       <c r="H11" s="126"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10">
       <c r="A12" s="58">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
@@ -14583,9 +14863,9 @@
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="19">
       <c r="A13" s="58">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="128"/>
       <c r="C13" s="126"/>
@@ -14596,9 +14876,9 @@
       <c r="H13" s="126"/>
       <c r="I13" s="126"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10">
       <c r="A14" s="58">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="126"/>
@@ -14609,7 +14889,7 @@
       <c r="H14" s="126"/>
       <c r="I14" s="126"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="19">
       <c r="B15" s="129"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -14618,7 +14898,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -14627,7 +14907,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:9">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -14636,7 +14916,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:9">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -14645,7 +14925,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:9">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -14654,7 +14934,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:9">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14663,7 +14943,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -14672,7 +14952,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -14681,7 +14961,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -14690,7 +14970,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -14699,7 +14979,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -14708,7 +14988,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -14717,7 +14997,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -14726,7 +15006,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -14735,7 +15015,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -14744,7 +15024,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -14753,7 +15033,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -14762,7 +15042,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -15740,8 +16020,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Cycle_One/HaerynLizDeepthi_Medical Device Development Worksheet 2018.xlsx
+++ b/Cycle_One/HaerynLizDeepthi_Medical Device Development Worksheet 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepthinacharaju/Documents/Duke/Class/Fall 2018/BME590L/MediCall/Cycle_One/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8527EA9-C3A1-784F-B033-91ABA68D0693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441EA468-9791-324E-8DD2-222C1BF3F822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9331,16 +9331,19 @@
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1">

--- a/Cycle_One/HaerynLizDeepthi_Medical Device Development Worksheet 2018.xlsx
+++ b/Cycle_One/HaerynLizDeepthi_Medical Device Development Worksheet 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepthinacharaju/Documents/Duke/Class/Fall 2018/BME590L/MediCall/Cycle_One/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691FF51-157F-D341-87C8-089B35CFB0EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB05AD-E091-754A-8425-606FC697F76F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1195,51 +1195,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1275,16 +1254,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,52 +1420,48 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1997,377 +1969,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>2</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>5</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <v>2</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>3</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>4</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>2</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>4</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>5</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>6</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>1</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>1</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>3</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>2</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3368,16 +3340,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="46" t="s">
         <v>264</v>
       </c>
       <c r="C3" t="s">
@@ -3385,682 +3357,682 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="86" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="73" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="73"/>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="73" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="73" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="46"/>
     </row>
     <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
+      <c r="B14" s="46"/>
     </row>
     <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="50"/>
+      <c r="B15" s="46"/>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="50"/>
+      <c r="B16" s="46"/>
     </row>
     <row r="17" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="50"/>
+      <c r="B17" s="46"/>
     </row>
     <row r="18" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="50"/>
+      <c r="B19" s="46"/>
     </row>
     <row r="20" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50"/>
+      <c r="B20" s="46"/>
     </row>
     <row r="21" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="50"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="50"/>
+      <c r="B22" s="46"/>
     </row>
     <row r="23" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="50"/>
+      <c r="B23" s="46"/>
     </row>
     <row r="24" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="50"/>
+      <c r="B24" s="46"/>
     </row>
     <row r="25" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
+      <c r="B25" s="46"/>
     </row>
     <row r="26" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
+      <c r="B26" s="46"/>
     </row>
     <row r="27" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="50"/>
+      <c r="B27" s="46"/>
     </row>
     <row r="28" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="50"/>
+      <c r="B28" s="46"/>
     </row>
     <row r="29" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="50"/>
+      <c r="B29" s="46"/>
     </row>
     <row r="30" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="50"/>
+      <c r="B30" s="46"/>
     </row>
     <row r="31" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50"/>
+      <c r="B31" s="46"/>
     </row>
     <row r="32" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
+      <c r="B32" s="46"/>
     </row>
     <row r="33" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="50"/>
+      <c r="B33" s="46"/>
     </row>
     <row r="34" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50"/>
+      <c r="B34" s="46"/>
     </row>
     <row r="35" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50"/>
+      <c r="B35" s="46"/>
     </row>
     <row r="36" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50"/>
+      <c r="B36" s="46"/>
     </row>
     <row r="37" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="50"/>
+      <c r="B37" s="46"/>
     </row>
     <row r="38" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="50"/>
+      <c r="B38" s="46"/>
     </row>
     <row r="39" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="50"/>
+      <c r="B39" s="46"/>
     </row>
     <row r="40" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="50"/>
+      <c r="B40" s="46"/>
     </row>
     <row r="41" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="50"/>
+      <c r="B41" s="46"/>
     </row>
     <row r="42" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="50"/>
+      <c r="B42" s="46"/>
     </row>
     <row r="43" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="50"/>
+      <c r="B43" s="46"/>
     </row>
     <row r="44" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="50"/>
+      <c r="B44" s="46"/>
     </row>
     <row r="45" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="50"/>
+      <c r="B45" s="46"/>
     </row>
     <row r="46" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="50"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="50"/>
+      <c r="B47" s="46"/>
     </row>
     <row r="48" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="50"/>
+      <c r="B48" s="46"/>
     </row>
     <row r="49" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="50"/>
+      <c r="B49" s="46"/>
     </row>
     <row r="50" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="50"/>
+      <c r="B50" s="46"/>
     </row>
     <row r="51" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="50"/>
+      <c r="B51" s="46"/>
     </row>
     <row r="52" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="50"/>
+      <c r="B52" s="46"/>
     </row>
     <row r="53" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="50"/>
+      <c r="B53" s="46"/>
     </row>
     <row r="54" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="50"/>
+      <c r="B54" s="46"/>
     </row>
     <row r="55" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="50"/>
+      <c r="B55" s="46"/>
     </row>
     <row r="56" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="50"/>
+      <c r="B56" s="46"/>
     </row>
     <row r="57" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="50"/>
+      <c r="B57" s="46"/>
     </row>
     <row r="58" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="50"/>
+      <c r="B58" s="46"/>
     </row>
     <row r="59" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="50"/>
+      <c r="B59" s="46"/>
     </row>
     <row r="60" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="50"/>
+      <c r="B60" s="46"/>
     </row>
     <row r="61" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="50"/>
+      <c r="B61" s="46"/>
     </row>
     <row r="62" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="50"/>
+      <c r="B62" s="46"/>
     </row>
     <row r="63" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="50"/>
+      <c r="B63" s="46"/>
     </row>
     <row r="64" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="50"/>
+      <c r="B64" s="46"/>
     </row>
     <row r="65" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="50"/>
+      <c r="B65" s="46"/>
     </row>
     <row r="66" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="50"/>
+      <c r="B66" s="46"/>
     </row>
     <row r="67" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="50"/>
+      <c r="B67" s="46"/>
     </row>
     <row r="68" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="50"/>
+      <c r="B68" s="46"/>
     </row>
     <row r="69" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="50"/>
+      <c r="B69" s="46"/>
     </row>
     <row r="70" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="50"/>
+      <c r="B70" s="46"/>
     </row>
     <row r="71" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="50"/>
+      <c r="B71" s="46"/>
     </row>
     <row r="72" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="50"/>
+      <c r="B72" s="46"/>
     </row>
     <row r="73" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="50"/>
+      <c r="B73" s="46"/>
     </row>
     <row r="74" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="50"/>
+      <c r="B74" s="46"/>
     </row>
     <row r="75" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="50"/>
+      <c r="B75" s="46"/>
     </row>
     <row r="76" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="50"/>
+      <c r="B76" s="46"/>
     </row>
     <row r="77" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="50"/>
+      <c r="B77" s="46"/>
     </row>
     <row r="78" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="50"/>
+      <c r="B78" s="46"/>
     </row>
     <row r="79" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="50"/>
+      <c r="B79" s="46"/>
     </row>
     <row r="80" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="50"/>
+      <c r="B80" s="46"/>
     </row>
     <row r="81" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="50"/>
+      <c r="B81" s="46"/>
     </row>
     <row r="82" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="50"/>
+      <c r="B82" s="46"/>
     </row>
     <row r="83" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="50"/>
+      <c r="B83" s="46"/>
     </row>
     <row r="84" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="50"/>
+      <c r="B84" s="46"/>
     </row>
     <row r="85" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="50"/>
+      <c r="B85" s="46"/>
     </row>
     <row r="86" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="50"/>
+      <c r="B86" s="46"/>
     </row>
     <row r="87" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="50"/>
+      <c r="B87" s="46"/>
     </row>
     <row r="88" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="50"/>
+      <c r="B88" s="46"/>
     </row>
     <row r="89" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="50"/>
+      <c r="B89" s="46"/>
     </row>
     <row r="90" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="50"/>
+      <c r="B90" s="46"/>
     </row>
     <row r="91" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="50"/>
+      <c r="B91" s="46"/>
     </row>
     <row r="92" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="50"/>
+      <c r="B92" s="46"/>
     </row>
     <row r="93" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="50"/>
+      <c r="B93" s="46"/>
     </row>
     <row r="94" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="50"/>
+      <c r="B94" s="46"/>
     </row>
     <row r="95" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="50"/>
+      <c r="B95" s="46"/>
     </row>
     <row r="96" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="50"/>
+      <c r="B96" s="46"/>
     </row>
     <row r="97" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="50"/>
+      <c r="B97" s="46"/>
     </row>
     <row r="98" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="50"/>
+      <c r="B98" s="46"/>
     </row>
     <row r="99" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="50"/>
+      <c r="B99" s="46"/>
     </row>
     <row r="100" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="50"/>
+      <c r="B100" s="46"/>
     </row>
     <row r="101" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="50"/>
+      <c r="B101" s="46"/>
     </row>
     <row r="102" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="50"/>
+      <c r="B102" s="46"/>
     </row>
     <row r="103" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="50"/>
+      <c r="B103" s="46"/>
     </row>
     <row r="104" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="50"/>
+      <c r="B104" s="46"/>
     </row>
     <row r="105" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="50"/>
+      <c r="B105" s="46"/>
     </row>
     <row r="106" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="50"/>
+      <c r="B106" s="46"/>
     </row>
     <row r="107" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="50"/>
+      <c r="B107" s="46"/>
     </row>
     <row r="108" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="50"/>
+      <c r="B108" s="46"/>
     </row>
     <row r="109" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="50"/>
+      <c r="B109" s="46"/>
     </row>
     <row r="110" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="50"/>
+      <c r="B110" s="46"/>
     </row>
     <row r="111" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="50"/>
+      <c r="B111" s="46"/>
     </row>
     <row r="112" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="50"/>
+      <c r="B112" s="46"/>
     </row>
     <row r="113" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="50"/>
+      <c r="B113" s="46"/>
     </row>
     <row r="114" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="50"/>
+      <c r="B114" s="46"/>
     </row>
     <row r="115" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="50"/>
+      <c r="B115" s="46"/>
     </row>
     <row r="116" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="50"/>
+      <c r="B116" s="46"/>
     </row>
     <row r="117" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="50"/>
+      <c r="B117" s="46"/>
     </row>
     <row r="118" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="50"/>
+      <c r="B118" s="46"/>
     </row>
     <row r="119" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="50"/>
+      <c r="B119" s="46"/>
     </row>
     <row r="120" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="50"/>
+      <c r="B120" s="46"/>
     </row>
     <row r="121" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="50"/>
+      <c r="B121" s="46"/>
     </row>
     <row r="122" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="50"/>
+      <c r="B122" s="46"/>
     </row>
     <row r="123" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="50"/>
+      <c r="B123" s="46"/>
     </row>
     <row r="124" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="50"/>
+      <c r="B124" s="46"/>
     </row>
     <row r="125" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="50"/>
+      <c r="B125" s="46"/>
     </row>
     <row r="126" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="50"/>
+      <c r="B126" s="46"/>
     </row>
     <row r="127" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="50"/>
+      <c r="B127" s="46"/>
     </row>
     <row r="128" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="50"/>
+      <c r="B128" s="46"/>
     </row>
     <row r="129" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="50"/>
+      <c r="B129" s="46"/>
     </row>
     <row r="130" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="50"/>
+      <c r="B130" s="46"/>
     </row>
     <row r="131" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="50"/>
+      <c r="B131" s="46"/>
     </row>
     <row r="132" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="50"/>
+      <c r="B132" s="46"/>
     </row>
     <row r="133" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="50"/>
+      <c r="B133" s="46"/>
     </row>
     <row r="134" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="50"/>
+      <c r="B134" s="46"/>
     </row>
     <row r="135" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="50"/>
+      <c r="B135" s="46"/>
     </row>
     <row r="136" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="50"/>
+      <c r="B136" s="46"/>
     </row>
     <row r="137" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="50"/>
+      <c r="B137" s="46"/>
     </row>
     <row r="138" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="50"/>
+      <c r="B138" s="46"/>
     </row>
     <row r="139" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="50"/>
+      <c r="B139" s="46"/>
     </row>
     <row r="140" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="50"/>
+      <c r="B140" s="46"/>
     </row>
     <row r="141" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="50"/>
+      <c r="B141" s="46"/>
     </row>
     <row r="142" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="50"/>
+      <c r="B142" s="46"/>
     </row>
     <row r="143" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="50"/>
+      <c r="B143" s="46"/>
     </row>
     <row r="144" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="50"/>
+      <c r="B144" s="46"/>
     </row>
     <row r="145" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="50"/>
+      <c r="B145" s="46"/>
     </row>
     <row r="146" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="50"/>
+      <c r="B146" s="46"/>
     </row>
     <row r="147" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="50"/>
+      <c r="B147" s="46"/>
     </row>
     <row r="148" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="50"/>
+      <c r="B148" s="46"/>
     </row>
     <row r="149" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="50"/>
+      <c r="B149" s="46"/>
     </row>
     <row r="150" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="50"/>
+      <c r="B150" s="46"/>
     </row>
     <row r="151" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="50"/>
+      <c r="B151" s="46"/>
     </row>
     <row r="152" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="50"/>
+      <c r="B152" s="46"/>
     </row>
     <row r="153" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="50"/>
+      <c r="B153" s="46"/>
     </row>
     <row r="154" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="50"/>
+      <c r="B154" s="46"/>
     </row>
     <row r="155" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="50"/>
+      <c r="B155" s="46"/>
     </row>
     <row r="156" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="50"/>
+      <c r="B156" s="46"/>
     </row>
     <row r="157" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="50"/>
+      <c r="B157" s="46"/>
     </row>
     <row r="158" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="50"/>
+      <c r="B158" s="46"/>
     </row>
     <row r="159" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="50"/>
+      <c r="B159" s="46"/>
     </row>
     <row r="160" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="50"/>
+      <c r="B160" s="46"/>
     </row>
     <row r="161" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="50"/>
+      <c r="B161" s="46"/>
     </row>
     <row r="162" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="50"/>
+      <c r="B162" s="46"/>
     </row>
     <row r="163" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="50"/>
+      <c r="B163" s="46"/>
     </row>
     <row r="164" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="50"/>
+      <c r="B164" s="46"/>
     </row>
     <row r="165" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="50"/>
+      <c r="B165" s="46"/>
     </row>
     <row r="166" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="50"/>
+      <c r="B166" s="46"/>
     </row>
     <row r="167" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="50"/>
+      <c r="B167" s="46"/>
     </row>
     <row r="168" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="50"/>
+      <c r="B168" s="46"/>
     </row>
     <row r="169" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="50"/>
+      <c r="B169" s="46"/>
     </row>
     <row r="170" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="50"/>
+      <c r="B170" s="46"/>
     </row>
     <row r="171" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="50"/>
+      <c r="B171" s="46"/>
     </row>
     <row r="172" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="50"/>
+      <c r="B172" s="46"/>
     </row>
     <row r="173" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="50"/>
+      <c r="B173" s="46"/>
     </row>
     <row r="174" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="50"/>
+      <c r="B174" s="46"/>
     </row>
     <row r="175" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="50"/>
+      <c r="B175" s="46"/>
     </row>
     <row r="176" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="50"/>
+      <c r="B176" s="46"/>
     </row>
     <row r="177" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="50"/>
+      <c r="B177" s="46"/>
     </row>
     <row r="178" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="50"/>
+      <c r="B178" s="46"/>
     </row>
     <row r="179" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="50"/>
+      <c r="B179" s="46"/>
     </row>
     <row r="180" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="50"/>
+      <c r="B180" s="46"/>
     </row>
     <row r="181" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="50"/>
+      <c r="B181" s="46"/>
     </row>
     <row r="182" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="50"/>
+      <c r="B182" s="46"/>
     </row>
     <row r="183" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="50"/>
+      <c r="B183" s="46"/>
     </row>
     <row r="184" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="50"/>
+      <c r="B184" s="46"/>
     </row>
     <row r="185" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="50"/>
+      <c r="B185" s="46"/>
     </row>
     <row r="186" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="50"/>
+      <c r="B186" s="46"/>
     </row>
     <row r="187" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="50"/>
+      <c r="B187" s="46"/>
     </row>
     <row r="188" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="50"/>
+      <c r="B188" s="46"/>
     </row>
     <row r="189" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="50"/>
+      <c r="B189" s="46"/>
     </row>
     <row r="190" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="50"/>
+      <c r="B190" s="46"/>
     </row>
     <row r="191" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="50"/>
+      <c r="B191" s="46"/>
     </row>
     <row r="192" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="50"/>
+      <c r="B192" s="46"/>
     </row>
     <row r="193" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="50"/>
+      <c r="B193" s="46"/>
     </row>
     <row r="194" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="50"/>
+      <c r="B194" s="46"/>
     </row>
     <row r="195" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="50"/>
+      <c r="B195" s="46"/>
     </row>
     <row r="196" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="50"/>
+      <c r="B196" s="46"/>
     </row>
     <row r="197" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="50"/>
+      <c r="B197" s="46"/>
     </row>
     <row r="198" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="50"/>
+      <c r="B198" s="46"/>
     </row>
     <row r="199" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="50"/>
+      <c r="B199" s="46"/>
     </row>
     <row r="200" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="50"/>
+      <c r="B200" s="46"/>
     </row>
     <row r="201" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="50"/>
+      <c r="B201" s="46"/>
     </row>
     <row r="202" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="50"/>
+      <c r="B202" s="46"/>
     </row>
     <row r="203" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="50"/>
+      <c r="B203" s="46"/>
     </row>
     <row r="204" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="50"/>
+      <c r="B204" s="46"/>
     </row>
     <row r="205" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="50"/>
+      <c r="B205" s="46"/>
     </row>
     <row r="206" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="50"/>
+      <c r="B206" s="46"/>
     </row>
     <row r="207" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="50"/>
+      <c r="B207" s="46"/>
     </row>
     <row r="208" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="50"/>
+      <c r="B208" s="46"/>
     </row>
     <row r="209" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="50"/>
+      <c r="B209" s="46"/>
     </row>
     <row r="210" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="50"/>
+      <c r="B210" s="46"/>
     </row>
     <row r="211" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="50"/>
+      <c r="B211" s="46"/>
     </row>
     <row r="212" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="50"/>
+      <c r="B212" s="46"/>
     </row>
     <row r="213" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="50"/>
+      <c r="B213" s="46"/>
     </row>
     <row r="214" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="50"/>
+      <c r="B214" s="46"/>
     </row>
     <row r="215" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="50"/>
+      <c r="B215" s="46"/>
     </row>
     <row r="216" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="50"/>
+      <c r="B216" s="46"/>
     </row>
     <row r="217" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="50"/>
+      <c r="B217" s="46"/>
     </row>
     <row r="218" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="50"/>
+      <c r="B218" s="46"/>
     </row>
     <row r="219" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="50"/>
+      <c r="B219" s="46"/>
     </row>
     <row r="220" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="50"/>
+      <c r="B220" s="46"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4857,208 +4829,208 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="96"/>
+    <col min="1" max="1" width="14.5" style="89"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="94.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101" t="s">
+    <row r="3" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103">
+      <c r="A4" s="98">
         <v>1</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="100">
         <v>150</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103">
+      <c r="A5" s="98">
         <v>2</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="100">
         <v>150</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103">
+      <c r="A6" s="98">
         <v>3</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="100">
         <v>150</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="101"/>
     </row>
     <row r="7" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103">
+      <c r="A7" s="98">
         <v>4</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="100">
         <v>200</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103">
+      <c r="A8" s="98">
         <v>5</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="100">
         <v>150</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="102"/>
     </row>
     <row r="9" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103">
+      <c r="A9" s="98">
         <v>6</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="100">
         <v>100</v>
       </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="104"/>
-      <c r="B10" s="102" t="s">
+      <c r="E9" s="101"/>
+    </row>
+    <row r="10" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="103"/>
+      <c r="B10" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="103">
+      <c r="A11" s="98">
         <v>7</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="100">
         <v>200</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="103">
+      <c r="A12" s="98">
         <v>8</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="100">
         <v>200</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="102"/>
     </row>
     <row r="13" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103">
+      <c r="A13" s="98">
         <v>9</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="100">
         <v>350</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103">
+      <c r="A14" s="98">
         <v>10</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="100">
         <v>350</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>277</v>
       </c>
       <c r="D15" s="1">
@@ -5096,633 +5068,633 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="135" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>5260*17</f>
         <v>89420</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <f>5260*17*150</f>
         <v>13413000</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>15640*108</f>
         <v>1689120</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <f>25*1689120</f>
         <v>42228000</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="90" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>73*24</f>
         <v>1752</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <f>150*1752</f>
         <v>262800</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>4900000</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <f>4900000*7</f>
         <v>34300000</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="90" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>3689*10</f>
         <v>36890</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <f>36890*150</f>
         <v>5533500</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="5"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="37">
         <v>3128</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="30">
         <v>24</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="37">
         <v>130.33000000000001</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="37">
         <v>2048</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="30">
         <v>12</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="37">
         <v>170.67</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="52">
+      <c r="C27" s="32"/>
+      <c r="D27" s="48">
         <v>1</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="51">
         <v>124.21</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="53" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="52">
+      <c r="C28" s="32"/>
+      <c r="D28" s="48">
         <v>1</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="51">
         <v>166.99</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="59">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="55">
         <f>AVERAGE(E25:E28)</f>
         <v>148.05000000000001</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5707,7 @@
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="60"/>
+      <c r="B40" s="56"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6731,185 +6703,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="41"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="50" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6917,7 +6889,7 @@
       <c r="A26" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6925,7 +6897,7 @@
       <c r="A27" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6933,174 +6905,174 @@
       <c r="A28" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>1</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>2</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>3</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>4</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>5</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>6</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>7</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>8</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>9</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>10</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>11</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>12</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>13</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>14</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -8076,7 +8048,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8085,300 +8057,300 @@
       <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="58">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="59">
         <v>0</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="59">
         <v>0</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="59">
         <v>1</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="59">
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="59">
         <v>0</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="59">
         <v>-1</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="59">
         <v>1</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="59">
         <v>-1</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="58">
         <v>0</v>
       </c>
-      <c r="M4" s="64"/>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="59">
         <v>-1</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="59">
         <v>-1</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="59">
         <v>1</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="59">
         <v>-1</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="59">
         <v>-1</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="59">
         <v>1</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="59">
         <v>1</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="59">
         <v>-1</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="59">
         <v>0</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="58">
         <v>0</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="60"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="59">
         <v>0</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="59">
         <v>-1</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="59">
         <v>1</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="59">
         <v>0</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="59">
         <v>-1</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="59">
         <v>1</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="59">
         <v>0</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="59">
         <v>1</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="59">
         <v>0</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="58">
         <v>0</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="60"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="59">
         <v>0</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="59">
         <v>0</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="59">
         <v>0</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="59">
         <v>-1</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="59">
         <v>0</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="59">
         <v>0</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="59">
         <v>1</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="59">
         <v>0</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="59">
         <v>0</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="59">
         <v>0</v>
       </c>
-      <c r="M7" s="64"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="59">
         <v>0</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="59">
         <v>1</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="59">
         <v>-1</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="59">
         <v>0</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="59">
         <v>1</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="59">
         <v>0</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="59">
         <v>0</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="59">
         <v>1</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="59">
         <v>1</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="58">
         <v>0</v>
       </c>
-      <c r="M8" s="64"/>
+      <c r="M8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="59">
         <v>0</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="59">
         <v>0</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="59">
         <v>1</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="59">
         <v>0</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="59">
         <v>0</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="59">
         <v>0</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="59">
         <v>0</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="59">
         <v>1</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="59">
         <v>0</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="59">
         <v>0</v>
       </c>
-      <c r="M9" s="64"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="63">
         <f t="shared" ref="C10:L10" si="0">SUM(C4:C8)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="63">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="63">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="63">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="40"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9397,321 +9369,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="61">
         <v>33</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="62" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="65">
         <v>2</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="66">
         <v>75</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="65">
         <v>2</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="65">
         <v>0.5</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="66">
         <f t="shared" ref="H6:H15" si="0">G6*$C$3*F6+E6*D6</f>
         <v>183</v>
       </c>
-      <c r="I6" s="71"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="65">
         <v>1</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="66">
         <v>100</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I7" s="71"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="65">
         <v>1</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="66">
         <v>5</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I8" s="71"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70">
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="69">
         <v>1</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="70">
         <v>5</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="69">
         <v>1</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="69">
         <v>5</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="66">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70">
+      <c r="A11" s="60"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70">
+      <c r="A12" s="60"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70">
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70">
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70">
+      <c r="A15" s="60"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="78">
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="74">
         <f>SUM(H6:H15)</f>
         <v>458</v>
       </c>
-      <c r="I16" s="80"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10716,126 +10688,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="72" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="73" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="73" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="73" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="73" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="75" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -11853,421 +11825,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66">
+      <c r="A4" s="62">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="65">
         <v>3</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="65" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="66">
+      <c r="A5" s="62">
         <v>2</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="69">
         <v>6</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="69" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="66">
+      <c r="A6" s="62">
         <v>3</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="69">
         <v>9</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="69" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="A7" s="62">
         <v>4</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="69">
         <v>5</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="69" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
+      <c r="A8" s="44">
         <v>5</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
+      <c r="A9" s="44">
         <v>6</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
+      <c r="A10" s="44">
         <v>7</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+      <c r="A11" s="44">
         <v>8</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="44">
         <v>9</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="44">
         <v>10</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
+      <c r="A14" s="44">
         <v>11</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="88"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13261,7 +13233,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="85" t="s">
         <v>254</v>
       </c>
     </row>
@@ -13281,97 +13253,97 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="59">
         <v>4</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="59">
         <v>5</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="58">
         <f t="shared" ref="E4:E11" si="0">C4*D4</f>
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="59">
         <v>5</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="59">
         <v>3</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="59">
         <v>5</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="59">
         <v>4</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="59">
         <v>4</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="58">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="85"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62">
+      <c r="B8" s="81"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="85"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62">
+      <c r="B9" s="81"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="85"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62">
+      <c r="B10" s="81"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62">
+      <c r="B11" s="81"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
